--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T13:14:15+00:00</t>
+    <t>2025-07-24T09:40:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TDDUI Encounter</t>
+    <t>TDDUI Encounter Sejour</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T09:40:01+00:00</t>
+    <t>2025-07-24T14:41:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T14:41:36+00:00</t>
+    <t>2025-07-25T06:57:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T06:57:33+00:00</t>
+    <t>2025-07-28T14:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/302-contenu-fhir---ajout-des-données-usager/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:46:36+00:00</t>
+    <t>2025-07-28T15:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
